--- a/EndothelialCluster13.xlsx
+++ b/EndothelialCluster13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Gene Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Analysis-Genes-Endothelial-Cells-Mouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5594F8-A43F-4F61-8DF8-B3E9686D2A61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D8BADE-80FC-44F5-A0D8-908C2B30B707}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="480" windowWidth="7570" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,24 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
-    <t>Gene Name</t>
-  </si>
-  <si>
-    <t>Gene Type</t>
-  </si>
-  <si>
     <t>Protein Coding</t>
   </si>
   <si>
-    <t>Max Expression</t>
-  </si>
-  <si>
-    <t>Max Cluster</t>
-  </si>
-  <si>
-    <t>Second Cluster</t>
-  </si>
-  <si>
     <t>2610037D02Rik</t>
   </si>
   <si>
@@ -169,6 +154,21 @@
   </si>
   <si>
     <t>lqgap2</t>
+  </si>
+  <si>
+    <t>GeneName</t>
+  </si>
+  <si>
+    <t>GeneType</t>
+  </si>
+  <si>
+    <t>MaxExpression</t>
+  </si>
+  <si>
+    <t>MaxCluster</t>
+  </si>
+  <si>
+    <t>SecondCluster</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A80" sqref="A42:XFD80"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,27 +503,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>549</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>562</v>
@@ -554,10 +554,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>607</v>
@@ -571,10 +571,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>467</v>
@@ -588,10 +588,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1230</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>416</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>586</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>514</v>
@@ -656,10 +656,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>732</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>476</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>485</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>419</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>529</v>
@@ -741,10 +741,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>615</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>465</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>437</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>799</v>
@@ -809,10 +809,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>822</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>924</v>
@@ -843,10 +843,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>1360</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>416</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>662</v>
@@ -894,10 +894,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>715</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>822</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>549</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>909</v>
@@ -962,10 +962,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>975</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>1440</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>613</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>863</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>518</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>417</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>826</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>2030</v>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>689</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>1360</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>512</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>929</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>405</v>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>403</v>
